--- a/project/Automationexercise Test case.xlsx
+++ b/project/Automationexercise Test case.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sagar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D E L L\Desktop\Tops\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF026B05-B0AB-4C95-A6BB-91B574CD0A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309A27D7-24B8-4F0B-8D66-618120187031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CAB2FDC4-2158-4CFF-8411-013E299A316E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAB2FDC4-2158-4CFF-8411-013E299A316E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="221">
   <si>
     <t>Test case id</t>
   </si>
@@ -1217,24 +1208,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4362CE4-17BF-4DBA-8F27-5C959B11BB4C}">
   <dimension ref="A1:BD181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" style="6" customWidth="1"/>
     <col min="2" max="2" width="19" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="6" customWidth="1"/>
     <col min="7" max="7" width="16" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="8" max="8" width="20.81640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1286,7 +1277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1315,7 +1306,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1339,7 +1330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1363,7 +1354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1387,7 +1378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3.1</v>
       </c>
@@ -1411,7 +1402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1435,7 +1426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>4.0999999999999996</v>
       </c>
@@ -1459,7 +1450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1483,7 +1474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="8" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -1507,7 +1498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1531,7 +1522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1555,7 +1546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1572,10 +1563,14 @@
       <c r="F14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>4.2</v>
       </c>
@@ -1599,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -1623,7 +1618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>60</v>
       </c>
@@ -1647,7 +1642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1671,7 +1666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>73</v>
       </c>
@@ -1695,7 +1690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>76</v>
       </c>
@@ -1719,7 +1714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>4.3</v>
       </c>
@@ -1743,7 +1738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -1767,7 +1762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>4.5</v>
       </c>
@@ -1791,7 +1786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>4.5999999999999996</v>
       </c>
@@ -1815,7 +1810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>4.7</v>
       </c>
@@ -1839,7 +1834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>4.8</v>
       </c>
@@ -1863,7 +1858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -1887,7 +1882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
@@ -1911,7 +1906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>4.1100000000000003</v>
       </c>
@@ -1935,7 +1930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>4.12</v>
       </c>
@@ -1959,7 +1954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -1983,7 +1978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>5.0999999999999996</v>
       </c>
@@ -2007,7 +2002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:56" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>5.2</v>
       </c>
@@ -2031,7 +2026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:56" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>5.3</v>
       </c>
@@ -2055,7 +2050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:56" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:56" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>142</v>
       </c>
@@ -2079,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:56" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:56" ht="116" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>143</v>
       </c>
@@ -2105,7 +2100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:56" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:56" s="8" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>143</v>
       </c>
@@ -2129,7 +2124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:56" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:56" s="2" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>143</v>
       </c>
@@ -2200,7 +2195,7 @@
       <c r="BC38"/>
       <c r="BD38"/>
     </row>
-    <row r="39" spans="1:56" ht="165" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:56" ht="145" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>144</v>
       </c>
@@ -2224,7 +2219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:56" ht="150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:56" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>145</v>
       </c>
@@ -2248,7 +2243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:56" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>5.4</v>
       </c>
@@ -2272,7 +2267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:56" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:56" s="8" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>5.5</v>
       </c>
@@ -2296,7 +2291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:56" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>5.6</v>
       </c>
@@ -2320,7 +2315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:56" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>6</v>
       </c>
@@ -2344,7 +2339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:56" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>6</v>
       </c>
@@ -2370,7 +2365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:56" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -2396,7 +2391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:56" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -2422,7 +2417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:56" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:56" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -2448,7 +2443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>6.2</v>
       </c>
@@ -2474,7 +2469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="8" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="8" customFormat="1" ht="145" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>179</v>
       </c>
@@ -2500,7 +2495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>7</v>
       </c>
@@ -2524,7 +2519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>8</v>
       </c>
@@ -2548,7 +2543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>9</v>
       </c>
@@ -2572,7 +2567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>10</v>
       </c>
@@ -2596,7 +2591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>11</v>
       </c>
@@ -2620,7 +2615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>12</v>
       </c>
@@ -2644,7 +2639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
         <v>12</v>
       </c>
@@ -2670,7 +2665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>12</v>
       </c>
@@ -2694,7 +2689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2704,7 +2699,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2714,7 +2709,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2724,7 +2719,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2734,7 +2729,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2744,7 +2739,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2754,7 +2749,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2764,7 +2759,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2774,7 +2769,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2784,7 +2779,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2794,7 +2789,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2804,7 +2799,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2814,7 +2809,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2824,7 +2819,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2834,7 +2829,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2844,7 +2839,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2854,7 +2849,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2864,7 +2859,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2874,7 +2869,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2884,7 +2879,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2894,7 +2889,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2904,7 +2899,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2914,7 +2909,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2924,7 +2919,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2934,7 +2929,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2944,7 +2939,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2954,7 +2949,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2964,7 +2959,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2974,7 +2969,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2984,7 +2979,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2994,7 +2989,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3004,7 +2999,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3014,7 +3009,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3024,7 +3019,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3034,7 +3029,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3044,7 +3039,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3054,7 +3049,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3064,7 +3059,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3074,7 +3069,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3084,7 +3079,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3094,7 +3089,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3104,7 +3099,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3114,7 +3109,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3124,7 +3119,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3134,7 +3129,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3144,7 +3139,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3154,7 +3149,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3164,7 +3159,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3174,7 +3169,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3184,7 +3179,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3194,7 +3189,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3204,7 +3199,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3214,7 +3209,7 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3224,7 +3219,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3234,7 +3229,7 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3244,7 +3239,7 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3254,7 +3249,7 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3264,7 +3259,7 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3274,7 +3269,7 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3284,7 +3279,7 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3294,7 +3289,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3304,7 +3299,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3314,7 +3309,7 @@
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3324,7 +3319,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3334,7 +3329,7 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3344,7 +3339,7 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3354,7 +3349,7 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3364,7 +3359,7 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3374,7 +3369,7 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3384,7 +3379,7 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3394,7 +3389,7 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3404,7 +3399,7 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -3414,7 +3409,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -3424,7 +3419,7 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3434,7 +3429,7 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3444,7 +3439,7 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3454,7 +3449,7 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3464,7 +3459,7 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3474,7 +3469,7 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3484,7 +3479,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3494,7 +3489,7 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3504,7 +3499,7 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3514,7 +3509,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3524,7 +3519,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3534,7 +3529,7 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3544,7 +3539,7 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3554,7 +3549,7 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3564,7 +3559,7 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3574,7 +3569,7 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3584,7 +3579,7 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3594,7 +3589,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3604,7 +3599,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3614,7 +3609,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3624,7 +3619,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3634,7 +3629,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3644,7 +3639,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3654,7 +3649,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3664,7 +3659,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3674,7 +3669,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3684,7 +3679,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3694,7 +3689,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3704,7 +3699,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3714,7 +3709,7 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3724,7 +3719,7 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3734,7 +3729,7 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3744,7 +3739,7 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -3754,7 +3749,7 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -3764,7 +3759,7 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3774,7 +3769,7 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -3784,7 +3779,7 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -3794,7 +3789,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -3804,7 +3799,7 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -3814,7 +3809,7 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -3824,7 +3819,7 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -3834,7 +3829,7 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -3844,7 +3839,7 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3854,7 +3849,7 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -3864,7 +3859,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -3874,7 +3869,7 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -3884,7 +3879,7 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -3894,7 +3889,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -3904,7 +3899,7 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -3914,7 +3909,7 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
